--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.621</v>
+        <v>-0.004</v>
       </c>
       <c r="D4" t="n">
-        <v>-20261.54</v>
+        <v>-121.05</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.121</v>
+        <v>-0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>-626.09</v>
+        <v>-102.86</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.625</v>
       </c>
       <c r="C6" t="n">
-        <v>11.521</v>
+        <v>2.687</v>
       </c>
       <c r="D6" t="n">
-        <v>266.68</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.774</v>
+        <v>0.197</v>
       </c>
       <c r="D7" t="n">
-        <v>290.91</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>22.128</v>
+        <v>10.07</v>
       </c>
       <c r="D8" t="n">
-        <v>101.55</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.217</v>
       </c>
       <c r="C9" t="n">
-        <v>9.920999999999999</v>
+        <v>2.294</v>
       </c>
       <c r="D9" t="n">
-        <v>350.75</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>11.641</v>
       </c>
       <c r="C10" t="n">
-        <v>151.657</v>
+        <v>11.839</v>
       </c>
       <c r="D10" t="n">
-        <v>740.53</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="C11" t="n">
-        <v>1.877</v>
+        <v>0.048</v>
       </c>
       <c r="D11" t="n">
-        <v>2927.42</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.986</v>
+        <v>-0.001</v>
       </c>
       <c r="D12" t="n">
-        <v>11473.91</v>
+        <v>-106.67</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.412</v>
       </c>
       <c r="C13" t="n">
-        <v>12.315</v>
+        <v>3.441</v>
       </c>
       <c r="D13" t="n">
-        <v>189.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.005608007311821</v>
+        <v>2.54989180678413</v>
       </c>
       <c r="C4" t="n">
-        <v>6.176412045955658</v>
+        <v>3.474467061814808</v>
       </c>
       <c r="D4" t="n">
-        <v>54.19</v>
+        <v>36.26</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7209907994479335</v>
+        <v>0.66129767895859</v>
       </c>
       <c r="F4" t="n">
-        <v>3.354636460414193</v>
+        <v>2.001907339278901</v>
       </c>
       <c r="G4" t="n">
-        <v>365.28</v>
+        <v>202.72</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>1.712</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-42.04</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.96615243922318</v>
+        <v>4.04564169673752</v>
       </c>
       <c r="C6" t="n">
-        <v>3.323743933055042</v>
+        <v>3.263456463364093</v>
       </c>
       <c r="D6" t="n">
-        <v>-16.2</v>
+        <v>-19.33</v>
       </c>
       <c r="E6" t="n">
-        <v>1.130544582076394</v>
+        <v>1.110078305680565</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7623946758162926</v>
+        <v>0.7953351910153911</v>
       </c>
       <c r="G6" t="n">
-        <v>-32.56</v>
+        <v>-28.35</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.004</v>
+        <v>-0.044</v>
       </c>
       <c r="D4" t="n">
-        <v>-121.05</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.035</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="D5" t="n">
-        <v>-102.86</v>
+        <v>-131.58</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.625</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>2.687</v>
+        <v>2.793</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.184</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197</v>
+        <v>0.21</v>
       </c>
       <c r="D7" t="n">
-        <v>7.07</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>10.07</v>
+        <v>10.346</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.279999999999999</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.217</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.294</v>
+        <v>2.658</v>
       </c>
       <c r="D9" t="n">
-        <v>3.47</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.641</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>11.839</v>
+        <v>12.028</v>
       </c>
       <c r="D10" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>6.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001</v>
+        <v>-0.017</v>
       </c>
       <c r="D12" t="n">
-        <v>-106.67</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.412</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>3.441</v>
+        <v>3.468</v>
       </c>
       <c r="D13" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.54989180678413</v>
+        <v>3.263632008007594</v>
       </c>
       <c r="C4" t="n">
-        <v>3.474467061814808</v>
+        <v>4.329996194158282</v>
       </c>
       <c r="D4" t="n">
-        <v>36.26</v>
+        <v>32.67</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66129767895859</v>
+        <v>0.4418201448676774</v>
       </c>
       <c r="F4" t="n">
-        <v>2.001907339278901</v>
+        <v>1.229449661561101</v>
       </c>
       <c r="G4" t="n">
-        <v>202.72</v>
+        <v>178.27</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.712</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-42.04</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.04564169673752</v>
+        <v>3.432704816403402</v>
       </c>
       <c r="C6" t="n">
-        <v>3.263456463364093</v>
+        <v>2.45925378652012</v>
       </c>
       <c r="D6" t="n">
-        <v>-19.33</v>
+        <v>-28.36</v>
       </c>
       <c r="E6" t="n">
-        <v>1.110078305680565</v>
+        <v>1.090986494884618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7953351910153911</v>
+        <v>0.2610151500019294</v>
       </c>
       <c r="G6" t="n">
-        <v>-28.35</v>
+        <v>-76.08</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-qat_pruning_quant-static/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
